--- a/dump_programas_compilados - comandos bat.xlsx
+++ b/dump_programas_compilados - comandos bat.xlsx
@@ -594,7 +594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -608,8 +610,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="str">
-        <f>CONCATENATE("riscv32-unknown-elf-objdump -d test/", A1, ".riscv"," &gt;  test/", A1, ".dump")</f>
-        <v>riscv32-unknown-elf-objdump -d test/000.main.riscv &gt;  test/000.main.dump</v>
+        <f>CONCATENATE("riscv32-unknown-elf-objdump -d test/", A1, ".riscv"," &gt;  test/", A1, ".s")</f>
+        <v>riscv32-unknown-elf-objdump -d test/000.main.riscv &gt;  test/000.main.s</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,8 +619,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B65" si="0">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A2, ".riscv"," &gt;  test/", A2, ".dump")</f>
-        <v>riscv32-unknown-elf-objdump -d test/011.const.riscv &gt;  test/011.const.dump</v>
+        <f t="shared" ref="B2:B65" si="0">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A2, ".riscv"," &gt;  test/", A2, ".s")</f>
+        <v>riscv32-unknown-elf-objdump -d test/011.const.riscv &gt;  test/011.const.s</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +629,7 @@
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/012.const.riscv &gt;  test/012.const.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/012.const.riscv &gt;  test/012.const.s</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +638,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/013.const.riscv &gt;  test/013.const.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/013.const.riscv &gt;  test/013.const.s</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +647,7 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/014.const.riscv &gt;  test/014.const.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/014.const.riscv &gt;  test/014.const.s</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +656,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/015.const.riscv &gt;  test/015.const.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/015.const.riscv &gt;  test/015.const.s</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +665,7 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/016.const.riscv &gt;  test/016.const.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/016.const.riscv &gt;  test/016.const.s</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +674,7 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/017.const.riscv &gt;  test/017.const.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/017.const.riscv &gt;  test/017.const.s</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +683,7 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/018.const.riscv &gt;  test/018.const.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/018.const.riscv &gt;  test/018.const.s</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +692,7 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/021.cast.riscv &gt;  test/021.cast.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/021.cast.riscv &gt;  test/021.cast.s</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +701,7 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/022.cast.riscv &gt;  test/022.cast.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/022.cast.riscv &gt;  test/022.cast.s</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +710,7 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/023.cast.riscv &gt;  test/023.cast.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/023.cast.riscv &gt;  test/023.cast.s</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +719,7 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/024.cast.riscv &gt;  test/024.cast.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/024.cast.riscv &gt;  test/024.cast.s</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +728,7 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/025.cast.riscv &gt;  test/025.cast.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/025.cast.riscv &gt;  test/025.cast.s</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +737,7 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/026.cast.riscv &gt;  test/026.cast.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/026.cast.riscv &gt;  test/026.cast.s</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +746,7 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/027.cast.riscv &gt;  test/027.cast.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/027.cast.riscv &gt;  test/027.cast.s</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +755,7 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/031.add.riscv &gt;  test/031.add.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/031.add.riscv &gt;  test/031.add.s</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,7 +764,7 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/032.add.riscv &gt;  test/032.add.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/032.add.riscv &gt;  test/032.add.s</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +773,7 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/033.add.riscv &gt;  test/033.add.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/033.add.riscv &gt;  test/033.add.s</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +782,7 @@
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/034.add.riscv &gt;  test/034.add.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/034.add.riscv &gt;  test/034.add.s</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,7 +791,7 @@
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/041.sub.riscv &gt;  test/041.sub.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/041.sub.riscv &gt;  test/041.sub.s</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +800,7 @@
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/042.sub.riscv &gt;  test/042.sub.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/042.sub.riscv &gt;  test/042.sub.s</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +809,7 @@
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/043.sub.riscv &gt;  test/043.sub.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/043.sub.riscv &gt;  test/043.sub.s</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +818,7 @@
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/044.sub.riscv &gt;  test/044.sub.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/044.sub.riscv &gt;  test/044.sub.s</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +827,7 @@
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/051.mul.riscv &gt;  test/051.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/051.mul.riscv &gt;  test/051.mul.s</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,7 +836,7 @@
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/052.mul.riscv &gt;  test/052.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/052.mul.riscv &gt;  test/052.mul.s</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +845,7 @@
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/053.mul.riscv &gt;  test/053.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/053.mul.riscv &gt;  test/053.mul.s</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +854,7 @@
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/054.mul.riscv &gt;  test/054.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/054.mul.riscv &gt;  test/054.mul.s</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +863,7 @@
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/055.mul.riscv &gt;  test/055.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/055.mul.riscv &gt;  test/055.mul.s</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +872,7 @@
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/056.mul.riscv &gt;  test/056.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/056.mul.riscv &gt;  test/056.mul.s</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +881,7 @@
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/057.mul.riscv &gt;  test/057.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/057.mul.riscv &gt;  test/057.mul.s</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +890,7 @@
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/058.mul.riscv &gt;  test/058.mul.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/058.mul.riscv &gt;  test/058.mul.s</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +899,7 @@
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/061.div.riscv &gt;  test/061.div.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/061.div.riscv &gt;  test/061.div.s</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +908,7 @@
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/062.div.riscv &gt;  test/062.div.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/062.div.riscv &gt;  test/062.div.s</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +917,7 @@
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/063.div.riscv &gt;  test/063.div.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/063.div.riscv &gt;  test/063.div.s</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +926,7 @@
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/064.div.riscv &gt;  test/064.div.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/064.div.riscv &gt;  test/064.div.s</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +935,7 @@
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/065.div.riscv &gt;  test/065.div.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/065.div.riscv &gt;  test/065.div.s</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +944,7 @@
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/066.div.riscv &gt;  test/066.div.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/066.div.riscv &gt;  test/066.div.s</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +953,7 @@
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/071.bool.riscv &gt;  test/071.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/071.bool.riscv &gt;  test/071.bool.s</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +962,7 @@
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/072.bool.riscv &gt;  test/072.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/072.bool.riscv &gt;  test/072.bool.s</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +971,7 @@
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/073.bool.riscv &gt;  test/073.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/073.bool.riscv &gt;  test/073.bool.s</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +980,7 @@
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/074.bool.riscv &gt;  test/074.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/074.bool.riscv &gt;  test/074.bool.s</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +989,7 @@
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/075.bool.riscv &gt;  test/075.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/075.bool.riscv &gt;  test/075.bool.s</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +998,7 @@
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/076.bool.riscv &gt;  test/076.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/076.bool.riscv &gt;  test/076.bool.s</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1007,7 @@
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/077.bool.riscv &gt;  test/077.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/077.bool.riscv &gt;  test/077.bool.s</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1016,7 @@
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/078.bool.riscv &gt;  test/078.bool.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/078.bool.riscv &gt;  test/078.bool.s</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1025,7 @@
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/081.shift.riscv &gt;  test/081.shift.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/081.shift.riscv &gt;  test/081.shift.s</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1034,7 @@
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/082.shift.riscv &gt;  test/082.shift.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/082.shift.riscv &gt;  test/082.shift.s</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,7 +1043,7 @@
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/083.shift.riscv &gt;  test/083.shift.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/083.shift.riscv &gt;  test/083.shift.s</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1052,7 @@
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/084.shift.riscv &gt;  test/084.shift.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/084.shift.riscv &gt;  test/084.shift.s</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,7 +1061,7 @@
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/085.shift.riscv &gt;  test/085.shift.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/085.shift.riscv &gt;  test/085.shift.s</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1070,7 @@
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/086.shift.riscv &gt;  test/086.shift.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/086.shift.riscv &gt;  test/086.shift.s</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1079,7 @@
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/111.if.riscv &gt;  test/111.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/111.if.riscv &gt;  test/111.if.s</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1088,7 @@
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/112.if.riscv &gt;  test/112.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/112.if.riscv &gt;  test/112.if.s</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1097,7 @@
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/113.if.riscv &gt;  test/113.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/113.if.riscv &gt;  test/113.if.s</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1106,7 @@
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/114.if.riscv &gt;  test/114.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/114.if.riscv &gt;  test/114.if.s</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1115,7 @@
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/115.if.riscv &gt;  test/115.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/115.if.riscv &gt;  test/115.if.s</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1124,7 @@
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/116.if.riscv &gt;  test/116.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/116.if.riscv &gt;  test/116.if.s</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1133,7 @@
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/117.if.riscv &gt;  test/117.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/117.if.riscv &gt;  test/117.if.s</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1142,7 @@
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/118.if.riscv &gt;  test/118.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/118.if.riscv &gt;  test/118.if.s</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1151,7 @@
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/119.if.riscv &gt;  test/119.if.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/119.if.riscv &gt;  test/119.if.s</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1160,7 @@
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/121.loop.riscv &gt;  test/121.loop.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/121.loop.riscv &gt;  test/121.loop.s</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1169,7 @@
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/122.loop.riscv &gt;  test/122.loop.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/122.loop.riscv &gt;  test/122.loop.s</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1178,7 @@
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/123.loop.riscv &gt;  test/123.loop.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/123.loop.riscv &gt;  test/123.loop.s</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,7 +1187,7 @@
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/124.loop.riscv &gt;  test/124.loop.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/124.loop.riscv &gt;  test/124.loop.s</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,8 +1195,8 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ref="B66:B77" si="1">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A66, ".riscv"," &gt;  test/", A66, ".dump")</f>
-        <v>riscv32-unknown-elf-objdump -d test/125.loop.riscv &gt;  test/125.loop.dump</v>
+        <f t="shared" ref="B66:B77" si="1">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A66, ".riscv"," &gt;  test/", A66, ".s")</f>
+        <v>riscv32-unknown-elf-objdump -d test/125.loop.riscv &gt;  test/125.loop.s</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1205,7 @@
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/126.loop.riscv &gt;  test/126.loop.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/126.loop.riscv &gt;  test/126.loop.s</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1214,7 @@
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/131.call.riscv &gt;  test/131.call.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/131.call.riscv &gt;  test/131.call.s</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1223,7 @@
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/132.call.riscv &gt;  test/132.call.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/132.call.riscv &gt;  test/132.call.s</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1232,7 @@
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/133.call.riscv &gt;  test/133.call.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/133.call.riscv &gt;  test/133.call.s</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1241,7 @@
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/134.call.riscv &gt;  test/134.call.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/134.call.riscv &gt;  test/134.call.s</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1250,7 @@
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/141.array.riscv &gt;  test/141.array.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/141.array.riscv &gt;  test/141.array.s</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1259,7 @@
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/142.array.riscv &gt;  test/142.array.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/142.array.riscv &gt;  test/142.array.s</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,7 +1268,7 @@
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/143.array.riscv &gt;  test/143.array.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/143.array.riscv &gt;  test/143.array.s</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,7 +1277,7 @@
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/144.array.riscv &gt;  test/144.array.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/144.array.riscv &gt;  test/144.array.s</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1286,7 @@
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/145.array.riscv &gt;  test/145.array.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/145.array.riscv &gt;  test/145.array.s</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1295,7 @@
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/146.array.riscv &gt;  test/146.array.dump</v>
+        <v>riscv32-unknown-elf-objdump -d test/146.array.riscv &gt;  test/146.array.s</v>
       </c>
     </row>
   </sheetData>

--- a/dump_programas_compilados - comandos bat.xlsx
+++ b/dump_programas_compilados - comandos bat.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B77"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,8 +610,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="str">
-        <f>CONCATENATE("riscv32-unknown-elf-objdump -d test/", A1, ".riscv"," &gt;  test/", A1, ".s")</f>
-        <v>riscv32-unknown-elf-objdump -d test/000.main.riscv &gt;  test/000.main.s</v>
+        <f>CONCATENATE("riscv32-unknown-elf-objdump -d test/", A1, ".riscv"," &gt;  test/", A1, ".asm")</f>
+        <v>riscv32-unknown-elf-objdump -d test/000.main.riscv &gt;  test/000.main.asm</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,8 +619,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B65" si="0">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A2, ".riscv"," &gt;  test/", A2, ".s")</f>
-        <v>riscv32-unknown-elf-objdump -d test/011.const.riscv &gt;  test/011.const.s</v>
+        <f t="shared" ref="B2:B65" si="0">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A2, ".riscv"," &gt;  test/", A2, ".asm")</f>
+        <v>riscv32-unknown-elf-objdump -d test/011.const.riscv &gt;  test/011.const.asm</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/012.const.riscv &gt;  test/012.const.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/012.const.riscv &gt;  test/012.const.asm</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/013.const.riscv &gt;  test/013.const.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/013.const.riscv &gt;  test/013.const.asm</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/014.const.riscv &gt;  test/014.const.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/014.const.riscv &gt;  test/014.const.asm</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/015.const.riscv &gt;  test/015.const.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/015.const.riscv &gt;  test/015.const.asm</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/016.const.riscv &gt;  test/016.const.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/016.const.riscv &gt;  test/016.const.asm</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/017.const.riscv &gt;  test/017.const.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/017.const.riscv &gt;  test/017.const.asm</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/018.const.riscv &gt;  test/018.const.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/018.const.riscv &gt;  test/018.const.asm</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/021.cast.riscv &gt;  test/021.cast.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/021.cast.riscv &gt;  test/021.cast.asm</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/022.cast.riscv &gt;  test/022.cast.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/022.cast.riscv &gt;  test/022.cast.asm</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/023.cast.riscv &gt;  test/023.cast.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/023.cast.riscv &gt;  test/023.cast.asm</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/024.cast.riscv &gt;  test/024.cast.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/024.cast.riscv &gt;  test/024.cast.asm</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/025.cast.riscv &gt;  test/025.cast.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/025.cast.riscv &gt;  test/025.cast.asm</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/026.cast.riscv &gt;  test/026.cast.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/026.cast.riscv &gt;  test/026.cast.asm</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/027.cast.riscv &gt;  test/027.cast.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/027.cast.riscv &gt;  test/027.cast.asm</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/031.add.riscv &gt;  test/031.add.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/031.add.riscv &gt;  test/031.add.asm</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/032.add.riscv &gt;  test/032.add.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/032.add.riscv &gt;  test/032.add.asm</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/033.add.riscv &gt;  test/033.add.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/033.add.riscv &gt;  test/033.add.asm</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/034.add.riscv &gt;  test/034.add.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/034.add.riscv &gt;  test/034.add.asm</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/041.sub.riscv &gt;  test/041.sub.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/041.sub.riscv &gt;  test/041.sub.asm</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/042.sub.riscv &gt;  test/042.sub.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/042.sub.riscv &gt;  test/042.sub.asm</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/043.sub.riscv &gt;  test/043.sub.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/043.sub.riscv &gt;  test/043.sub.asm</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/044.sub.riscv &gt;  test/044.sub.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/044.sub.riscv &gt;  test/044.sub.asm</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/051.mul.riscv &gt;  test/051.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/051.mul.riscv &gt;  test/051.mul.asm</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/052.mul.riscv &gt;  test/052.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/052.mul.riscv &gt;  test/052.mul.asm</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/053.mul.riscv &gt;  test/053.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/053.mul.riscv &gt;  test/053.mul.asm</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/054.mul.riscv &gt;  test/054.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/054.mul.riscv &gt;  test/054.mul.asm</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/055.mul.riscv &gt;  test/055.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/055.mul.riscv &gt;  test/055.mul.asm</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/056.mul.riscv &gt;  test/056.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/056.mul.riscv &gt;  test/056.mul.asm</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/057.mul.riscv &gt;  test/057.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/057.mul.riscv &gt;  test/057.mul.asm</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/058.mul.riscv &gt;  test/058.mul.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/058.mul.riscv &gt;  test/058.mul.asm</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/061.div.riscv &gt;  test/061.div.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/061.div.riscv &gt;  test/061.div.asm</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/062.div.riscv &gt;  test/062.div.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/062.div.riscv &gt;  test/062.div.asm</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/063.div.riscv &gt;  test/063.div.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/063.div.riscv &gt;  test/063.div.asm</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/064.div.riscv &gt;  test/064.div.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/064.div.riscv &gt;  test/064.div.asm</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/065.div.riscv &gt;  test/065.div.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/065.div.riscv &gt;  test/065.div.asm</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/066.div.riscv &gt;  test/066.div.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/066.div.riscv &gt;  test/066.div.asm</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/071.bool.riscv &gt;  test/071.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/071.bool.riscv &gt;  test/071.bool.asm</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/072.bool.riscv &gt;  test/072.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/072.bool.riscv &gt;  test/072.bool.asm</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/073.bool.riscv &gt;  test/073.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/073.bool.riscv &gt;  test/073.bool.asm</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/074.bool.riscv &gt;  test/074.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/074.bool.riscv &gt;  test/074.bool.asm</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/075.bool.riscv &gt;  test/075.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/075.bool.riscv &gt;  test/075.bool.asm</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/076.bool.riscv &gt;  test/076.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/076.bool.riscv &gt;  test/076.bool.asm</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/077.bool.riscv &gt;  test/077.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/077.bool.riscv &gt;  test/077.bool.asm</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/078.bool.riscv &gt;  test/078.bool.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/078.bool.riscv &gt;  test/078.bool.asm</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/081.shift.riscv &gt;  test/081.shift.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/081.shift.riscv &gt;  test/081.shift.asm</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/082.shift.riscv &gt;  test/082.shift.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/082.shift.riscv &gt;  test/082.shift.asm</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/083.shift.riscv &gt;  test/083.shift.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/083.shift.riscv &gt;  test/083.shift.asm</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/084.shift.riscv &gt;  test/084.shift.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/084.shift.riscv &gt;  test/084.shift.asm</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/085.shift.riscv &gt;  test/085.shift.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/085.shift.riscv &gt;  test/085.shift.asm</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/086.shift.riscv &gt;  test/086.shift.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/086.shift.riscv &gt;  test/086.shift.asm</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/111.if.riscv &gt;  test/111.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/111.if.riscv &gt;  test/111.if.asm</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/112.if.riscv &gt;  test/112.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/112.if.riscv &gt;  test/112.if.asm</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/113.if.riscv &gt;  test/113.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/113.if.riscv &gt;  test/113.if.asm</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/114.if.riscv &gt;  test/114.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/114.if.riscv &gt;  test/114.if.asm</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/115.if.riscv &gt;  test/115.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/115.if.riscv &gt;  test/115.if.asm</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/116.if.riscv &gt;  test/116.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/116.if.riscv &gt;  test/116.if.asm</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/117.if.riscv &gt;  test/117.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/117.if.riscv &gt;  test/117.if.asm</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/118.if.riscv &gt;  test/118.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/118.if.riscv &gt;  test/118.if.asm</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/119.if.riscv &gt;  test/119.if.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/119.if.riscv &gt;  test/119.if.asm</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/121.loop.riscv &gt;  test/121.loop.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/121.loop.riscv &gt;  test/121.loop.asm</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/122.loop.riscv &gt;  test/122.loop.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/122.loop.riscv &gt;  test/122.loop.asm</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/123.loop.riscv &gt;  test/123.loop.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/123.loop.riscv &gt;  test/123.loop.asm</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>riscv32-unknown-elf-objdump -d test/124.loop.riscv &gt;  test/124.loop.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/124.loop.riscv &gt;  test/124.loop.asm</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,8 +1195,8 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ref="B66:B77" si="1">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A66, ".riscv"," &gt;  test/", A66, ".s")</f>
-        <v>riscv32-unknown-elf-objdump -d test/125.loop.riscv &gt;  test/125.loop.s</v>
+        <f t="shared" ref="B66:B77" si="1">CONCATENATE("riscv32-unknown-elf-objdump -d test/", A66, ".riscv"," &gt;  test/", A66, ".asm")</f>
+        <v>riscv32-unknown-elf-objdump -d test/125.loop.riscv &gt;  test/125.loop.asm</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/126.loop.riscv &gt;  test/126.loop.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/126.loop.riscv &gt;  test/126.loop.asm</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/131.call.riscv &gt;  test/131.call.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/131.call.riscv &gt;  test/131.call.asm</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/132.call.riscv &gt;  test/132.call.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/132.call.riscv &gt;  test/132.call.asm</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/133.call.riscv &gt;  test/133.call.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/133.call.riscv &gt;  test/133.call.asm</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/134.call.riscv &gt;  test/134.call.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/134.call.riscv &gt;  test/134.call.asm</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/141.array.riscv &gt;  test/141.array.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/141.array.riscv &gt;  test/141.array.asm</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/142.array.riscv &gt;  test/142.array.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/142.array.riscv &gt;  test/142.array.asm</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/143.array.riscv &gt;  test/143.array.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/143.array.riscv &gt;  test/143.array.asm</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/144.array.riscv &gt;  test/144.array.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/144.array.riscv &gt;  test/144.array.asm</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/145.array.riscv &gt;  test/145.array.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/145.array.riscv &gt;  test/145.array.asm</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>riscv32-unknown-elf-objdump -d test/146.array.riscv &gt;  test/146.array.s</v>
+        <v>riscv32-unknown-elf-objdump -d test/146.array.riscv &gt;  test/146.array.asm</v>
       </c>
     </row>
   </sheetData>
